--- a/Exos/04-tp-complet/02-tp-aeroport/02-tp-aeroport.xlsx
+++ b/Exos/04-tp-complet/02-tp-aeroport/02-tp-aeroport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO-GITHUB\CDA-07-DB\Exos\04-tp-complet\02-tp-aeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D149DD5-5314-4BCC-AD09-37A54202C0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0D447-D632-4799-9C70-4888AEACAA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="31515" yWindow="2205" windowWidth="21600" windowHeight="12735" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -50,6 +50,93 @@
   </si>
   <si>
     <t>Contraintes</t>
+  </si>
+  <si>
+    <t>plane_registering</t>
+  </si>
+  <si>
+    <t>Immatriculation de l'avion</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Identifiant</t>
+  </si>
+  <si>
+    <t>plane_buy_date</t>
+  </si>
+  <si>
+    <t>Date d'achat de l'avion</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>comp_name</t>
+  </si>
+  <si>
+    <t>comp_phone</t>
+  </si>
+  <si>
+    <t>Nom de l'entreprise</t>
+  </si>
+  <si>
+    <t>Telephone de l'entreprise</t>
+  </si>
+  <si>
+    <t>person_id</t>
+  </si>
+  <si>
+    <t>person_name</t>
+  </si>
+  <si>
+    <t>person_phone</t>
+  </si>
+  <si>
+    <t>Identifiant de la personne</t>
+  </si>
+  <si>
+    <t>Nom de la personne</t>
+  </si>
+  <si>
+    <t>Telephone de la personne</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>plane_name</t>
+  </si>
+  <si>
+    <t>Nom de l'avion</t>
+  </si>
+  <si>
+    <t>plane_power</t>
+  </si>
+  <si>
+    <t>Puissance de l'avion</t>
+  </si>
+  <si>
+    <t>(en chevaux)</t>
+  </si>
+  <si>
+    <t>plane_seats</t>
+  </si>
+  <si>
+    <t>Nombre de places</t>
   </si>
 </sst>
 </file>
@@ -485,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF74A7F-FA35-438F-A0F3-6FB00DD605E2}">
-  <dimension ref="B4:H4"/>
+  <dimension ref="B4:H15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -497,7 +584,7 @@
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -520,6 +607,184 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -553,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F70A41-356E-4DCE-81CF-AD1213A03A07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>

--- a/Exos/04-tp-complet/02-tp-aeroport/02-tp-aeroport.xlsx
+++ b/Exos/04-tp-complet/02-tp-aeroport/02-tp-aeroport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO-GITHUB\CDA-07-DB\Exos\04-tp-complet\02-tp-aeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0D447-D632-4799-9C70-4888AEACAA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966FFEC-38CF-48E7-B520-46ADAFBC49BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="2205" windowWidth="21600" windowHeight="12735" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -115,9 +115,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>constructor</t>
-  </si>
-  <si>
     <t>plane_name</t>
   </si>
   <si>
@@ -137,6 +134,75 @@
   </si>
   <si>
     <t>Nombre de places</t>
+  </si>
+  <si>
+    <t>comp_id</t>
+  </si>
+  <si>
+    <t>Identifiant de l'entreprise</t>
+  </si>
+  <si>
+    <t>pilot_diploma</t>
+  </si>
+  <si>
+    <t>Numero de brevet de pilote</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>addr_id</t>
+  </si>
+  <si>
+    <t>Identifiant de l'adresse</t>
+  </si>
+  <si>
+    <t>addr_number</t>
+  </si>
+  <si>
+    <t>addr_name</t>
+  </si>
+  <si>
+    <t>addr_street_type</t>
+  </si>
+  <si>
+    <t>addr_zipcode</t>
+  </si>
+  <si>
+    <t>addr_city</t>
+  </si>
+  <si>
+    <t>Numero de l'adresse</t>
+  </si>
+  <si>
+    <t>Nom de la voie</t>
+  </si>
+  <si>
+    <t>Type de la voie</t>
+  </si>
+  <si>
+    <t>Code postal</t>
+  </si>
+  <si>
+    <t>Nom de la ville</t>
+  </si>
+  <si>
+    <t>main_auth_id</t>
+  </si>
+  <si>
+    <t>main_auth_name</t>
+  </si>
+  <si>
+    <t>Identifiant de l'habilitation de maintenance</t>
+  </si>
+  <si>
+    <t>Nom de l'habilitation de maintenance</t>
+  </si>
+  <si>
+    <t>pilot_auth_id</t>
+  </si>
+  <si>
+    <t>pilot_auth_name</t>
   </si>
 </sst>
 </file>
@@ -572,16 +638,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF74A7F-FA35-438F-A0F3-6FB00DD605E2}">
-  <dimension ref="B4:H15"/>
+  <dimension ref="B4:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
@@ -644,10 +710,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -661,10 +727,10 @@
     </row>
     <row r="8" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -676,15 +742,15 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -698,10 +764,10 @@
     </row>
     <row r="10" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -715,16 +781,16 @@
     </row>
     <row r="11" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -732,16 +798,16 @@
     </row>
     <row r="12" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -749,33 +815,33 @@
     </row>
     <row r="13" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -783,7 +849,173 @@
     </row>
     <row r="15" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
